--- a/OrangeHRM/BugReport.xlsx
+++ b/OrangeHRM/BugReport.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0060b212"/>
         <bgColor rgb="0060b212"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,10 +92,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,25 +463,23 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="25.109375" customWidth="1" style="5" min="1" max="1"/>
-    <col width="8.88671875" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.33203125" customWidth="1" style="5" min="3" max="3"/>
-    <col width="20.6640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="33.6640625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="16.33203125" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44140625" customWidth="1" style="5" min="7" max="7"/>
-    <col width="14.5546875" customWidth="1" style="5" min="8" max="8"/>
-    <col width="22.33203125" customWidth="1" style="5" min="9" max="9"/>
-    <col width="8.88671875" customWidth="1" style="5" min="10" max="10"/>
-    <col width="8.88671875" customWidth="1" style="5" min="11" max="11"/>
-    <col width="8.88671875" customWidth="1" style="5" min="12" max="18"/>
-    <col width="8.88671875" customWidth="1" style="5" min="19" max="16384"/>
+    <col width="25.109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.88671875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="16.33203125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="20.6640625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="33.6640625" customWidth="1" style="2" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="19.44140625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="19.6640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="16.109375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="8.88671875" customWidth="1" style="2" min="10" max="26"/>
+    <col width="8.88671875" customWidth="1" style="2" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" s="4">
@@ -538,338 +540,338 @@
       </c>
     </row>
     <row r="2" ht="43.2" customHeight="1" s="4">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>TC_01</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Login with valid username and invalid password</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>User account exists</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Enter valid username and invalid password, click login</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>valid_user</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>wrongpass</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Invalid credentials</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
     </row>
     <row r="3" ht="43.2" customHeight="1" s="4">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>TC_02</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Login with invalid username and valid password</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Enter invalid username and valid password, click login</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>invalid_user</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>ValidPass123</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Invalid credentials</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
     </row>
     <row r="4" ht="43.2" customHeight="1" s="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>TC_03</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Login with empty username and password</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Leave username and password fields empty, click login</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>Invalid credentials</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Invalid credential</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
     <row r="5" ht="43.2" customHeight="1" s="4">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>TC_04</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Login with case-sensitive username</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>User account exists with username in lowercase</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Enter username in uppercase and valid password, click login</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>VALID_USER</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>ValidPass123</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Invalid credentials</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
     </row>
     <row r="6" ht="28.8" customHeight="1" s="4">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>TC_05</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Attempt login with SQL injection</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Enter SQL injection as username and password, click login</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>' OR '1'='1</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>' OR '1'='1</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Invalid credentials</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
     </row>
     <row r="7" ht="28.8" customHeight="1" s="4">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Verify Login Functionality</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>TC_06</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Login with valid credentials</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>User account exists</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Enter valid username and password, click login</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Functional</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>admin123</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>Dashboard</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="K7" s="6" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
